--- a/data/trans_orig/P14A10-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A10-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{218B8D40-19B3-41F0-8282-5352BD92DA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88AB4D3E-44CC-49C6-AAF8-9AF19AF4C804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4A440265-EF6F-4DD8-A3E2-F45B8EFAFD47}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A4F2C591-8F19-40F4-91DA-46E99D7EB21E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="240">
   <si>
     <t>Población que recibe medicación o terapia por trastornos cardíacos en 2012 (Tasa respuesta: 4,01%)</t>
   </si>
@@ -84,7 +84,7 @@
     <t>85,25%</t>
   </si>
   <si>
-    <t>56,49%</t>
+    <t>53,37%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -99,7 +99,7 @@
     <t>93,78%</t>
   </si>
   <si>
-    <t>79,65%</t>
+    <t>79,26%</t>
   </si>
   <si>
     <t>14,75%</t>
@@ -108,7 +108,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>43,51%</t>
+    <t>46,63%</t>
   </si>
   <si>
     <t>0%</t>
@@ -120,7 +120,7 @@
     <t>6,22%</t>
   </si>
   <si>
-    <t>20,35%</t>
+    <t>20,74%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -174,49 +174,55 @@
     <t>87,77%</t>
   </si>
   <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
   </si>
   <si>
     <t>90,24%</t>
   </si>
   <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
   </si>
   <si>
     <t>88,99%</t>
   </si>
   <si>
-    <t>77,68%</t>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
   </si>
   <si>
     <t>12,23%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
   </si>
   <si>
     <t>9,76%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
   </si>
   <si>
     <t>11,01%</t>
   </si>
   <si>
-    <t>22,32%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -255,7 +261,7 @@
     <t>96,89%</t>
   </si>
   <si>
-    <t>84,23%</t>
+    <t>84,22%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -270,7 +276,7 @@
     <t>3,11%</t>
   </si>
   <si>
-    <t>15,77%</t>
+    <t>15,78%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -279,7 +285,7 @@
     <t>93,33%</t>
   </si>
   <si>
-    <t>78,83%</t>
+    <t>78,46%</t>
   </si>
   <si>
     <t>94,99%</t>
@@ -291,16 +297,16 @@
     <t>93,99%</t>
   </si>
   <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
   </si>
   <si>
     <t>6,67%</t>
   </si>
   <si>
-    <t>21,17%</t>
+    <t>21,54%</t>
   </si>
   <si>
     <t>5,01%</t>
@@ -312,10 +318,10 @@
     <t>6,01%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -324,103 +330,103 @@
     <t>87,29%</t>
   </si>
   <si>
-    <t>62,06%</t>
+    <t>61,82%</t>
   </si>
   <si>
     <t>84,67%</t>
   </si>
   <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
   </si>
   <si>
     <t>85,7%</t>
   </si>
   <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
   </si>
   <si>
     <t>12,71%</t>
   </si>
   <si>
-    <t>37,94%</t>
+    <t>38,18%</t>
   </si>
   <si>
     <t>15,33%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
   </si>
   <si>
     <t>14,3%</t>
   </si>
   <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
   </si>
   <si>
     <t>90,57%</t>
   </si>
   <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
   </si>
   <si>
     <t>92,49%</t>
   </si>
   <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
   </si>
   <si>
     <t>91,59%</t>
   </si>
   <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -432,10 +438,7 @@
     <t>89,06%</t>
   </si>
   <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
+    <t>51,04%</t>
   </si>
   <si>
     <t>39,89%</t>
@@ -444,19 +447,16 @@
     <t>83,51%</t>
   </si>
   <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
   </si>
   <si>
     <t>10,94%</t>
   </si>
   <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
+    <t>48,96%</t>
   </si>
   <si>
     <t>60,11%</t>
@@ -465,124 +465,130 @@
     <t>16,49%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
   </si>
   <si>
     <t>83,95%</t>
   </si>
   <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
   </si>
   <si>
     <t>91,12%</t>
   </si>
   <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
   </si>
   <si>
     <t>16,05%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
   </si>
   <si>
     <t>8,88%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
   </si>
   <si>
     <t>87,21%</t>
   </si>
   <si>
-    <t>62,9%</t>
+    <t>60,94%</t>
   </si>
   <si>
     <t>88,9%</t>
   </si>
   <si>
-    <t>45,96%</t>
+    <t>46,24%</t>
   </si>
   <si>
     <t>87,78%</t>
   </si>
   <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
   </si>
   <si>
     <t>12,79%</t>
   </si>
   <si>
-    <t>37,1%</t>
+    <t>39,06%</t>
   </si>
   <si>
     <t>11,1%</t>
   </si>
   <si>
-    <t>54,04%</t>
+    <t>53,76%</t>
   </si>
   <si>
     <t>12,22%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
   </si>
   <si>
     <t>93,3%</t>
   </si>
   <si>
-    <t>65,09%</t>
+    <t>72,13%</t>
   </si>
   <si>
     <t>92,68%</t>
   </si>
   <si>
-    <t>76,22%</t>
+    <t>76,15%</t>
   </si>
   <si>
     <t>92,86%</t>
   </si>
   <si>
-    <t>80,31%</t>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>6,7%</t>
   </si>
   <si>
-    <t>34,91%</t>
+    <t>27,87%</t>
   </si>
   <si>
     <t>7,32%</t>
   </si>
   <si>
-    <t>23,78%</t>
+    <t>23,85%</t>
   </si>
   <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>19,69%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -606,100 +612,94 @@
     <t>84,99%</t>
   </si>
   <si>
-    <t>29,76%</t>
+    <t>37,46%</t>
   </si>
   <si>
     <t>95,48%</t>
   </si>
   <si>
-    <t>74,64%</t>
+    <t>76,24%</t>
   </si>
   <si>
     <t>15,01%</t>
   </si>
   <si>
-    <t>70,24%</t>
+    <t>62,54%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>25,36%</t>
+    <t>23,76%</t>
   </si>
   <si>
     <t>94,83%</t>
   </si>
   <si>
-    <t>71,77%</t>
+    <t>78,3%</t>
   </si>
   <si>
     <t>91,66%</t>
   </si>
   <si>
-    <t>74,71%</t>
+    <t>72,49%</t>
   </si>
   <si>
     <t>93,07%</t>
   </si>
   <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
   </si>
   <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>28,23%</t>
+    <t>21,7%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>25,29%</t>
+    <t>27,51%</t>
   </si>
   <si>
     <t>6,93%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
   </si>
   <si>
     <t>92,75%</t>
   </si>
   <si>
-    <t>73,88%</t>
+    <t>75,88%</t>
   </si>
   <si>
     <t>94,96%</t>
   </si>
   <si>
-    <t>87,24%</t>
+    <t>85,38%</t>
   </si>
   <si>
     <t>98,51%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
+    <t>14,99%</t>
   </si>
   <si>
     <t>7,25%</t>
   </si>
   <si>
-    <t>26,12%</t>
+    <t>24,12%</t>
   </si>
   <si>
     <t>5,04%</t>
@@ -708,61 +708,55 @@
     <t>1,49%</t>
   </si>
   <si>
-    <t>12,76%</t>
+    <t>14,62%</t>
   </si>
   <si>
     <t>94,37%</t>
   </si>
   <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
   </si>
   <si>
     <t>90,85%</t>
   </si>
   <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
+    <t>94,89%</t>
   </si>
   <si>
     <t>92,41%</t>
   </si>
   <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
   </si>
   <si>
     <t>5,63%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
   </si>
   <si>
     <t>9,15%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
+    <t>5,11%</t>
   </si>
   <si>
     <t>7,59%</t>
   </si>
   <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714FBE7F-B480-4FDD-BB30-61062DEB0356}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B559A6CA-2E12-4188-8D67-6DB5CAA86339}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1781,7 +1775,7 @@
         <v>51</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1796,13 +1790,13 @@
         <v>3870</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -1811,13 +1805,13 @@
         <v>3013</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -1826,13 +1820,13 @@
         <v>6883</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1888,7 +1882,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1903,7 +1897,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>18</v>
@@ -1918,7 +1912,7 @@
         <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>18</v>
@@ -1933,7 +1927,7 @@
         <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>18</v>
@@ -1957,7 +1951,7 @@
         <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1972,7 +1966,7 @@
         <v>24</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1987,7 +1981,7 @@
         <v>24</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,7 +2037,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2058,7 +2052,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>18</v>
@@ -2070,10 +2064,10 @@
         <v>17735</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -2085,10 +2079,10 @@
         <v>31311</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -2112,7 +2106,7 @@
         <v>24</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2121,13 +2115,13 @@
         <v>1005</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -2136,13 +2130,13 @@
         <v>1005</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,7 +2192,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2210,10 +2204,10 @@
         <v>27847</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>16</v>
@@ -2225,10 +2219,10 @@
         <v>18448</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>16</v>
@@ -2240,13 +2234,13 @@
         <v>46295</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,13 +2255,13 @@
         <v>1989</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2276,13 +2270,13 @@
         <v>972</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -2291,13 +2285,13 @@
         <v>2961</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,7 +2347,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2365,10 +2359,10 @@
         <v>14910</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>16</v>
@@ -2380,13 +2374,13 @@
         <v>22170</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M25" s="7">
         <v>34</v>
@@ -2395,13 +2389,13 @@
         <v>37079</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,13 +2410,13 @@
         <v>2170</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2431,13 +2425,13 @@
         <v>4015</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -2446,13 +2440,13 @@
         <v>6186</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,13 +2514,13 @@
         <v>118812</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H28" s="7">
         <v>128</v>
@@ -2535,13 +2529,13 @@
         <v>136596</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M28" s="7">
         <v>239</v>
@@ -2550,13 +2544,13 @@
         <v>255408</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,13 +2565,13 @@
         <v>12377</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -2586,13 +2580,13 @@
         <v>11087</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M29" s="7">
         <v>22</v>
@@ -2601,13 +2595,13 @@
         <v>23464</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,7 +2657,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2687,7 +2681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBEDBB4-F9D7-4CC9-BB65-9E478DFA932F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB13889-025F-45D4-BD64-352DBECECCFE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2704,7 +2698,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2811,10 +2805,10 @@
         <v>7854</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>16</v>
@@ -2826,10 +2820,10 @@
         <v>9123</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>16</v>
@@ -2841,13 +2835,13 @@
         <v>16977</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,13 +2856,13 @@
         <v>965</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -2877,7 +2871,7 @@
         <v>2388</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
@@ -3312,7 +3306,7 @@
         <v>175</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,13 +3321,13 @@
         <v>957</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3342,13 +3336,13 @@
         <v>2583</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3357,13 +3351,13 @@
         <v>3540</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,7 +3413,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3434,7 +3428,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>18</v>
@@ -3449,7 +3443,7 @@
         <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>18</v>
@@ -3464,7 +3458,7 @@
         <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>18</v>
@@ -3488,7 +3482,7 @@
         <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3503,7 +3497,7 @@
         <v>24</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3518,7 +3512,7 @@
         <v>24</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,7 +3568,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3586,10 +3580,10 @@
         <v>5518</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -3604,7 +3598,7 @@
         <v>16</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>18</v>
@@ -3616,10 +3610,10 @@
         <v>20570</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -3637,13 +3631,13 @@
         <v>974</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3658,7 +3652,7 @@
         <v>24</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3667,13 +3661,13 @@
         <v>974</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,7 +3723,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3741,10 +3735,10 @@
         <v>20943</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>16</v>
@@ -3756,10 +3750,10 @@
         <v>25227</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>16</v>
@@ -3771,13 +3765,13 @@
         <v>46171</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3786,13 @@
         <v>1143</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -3807,13 +3801,13 @@
         <v>2295</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -3822,13 +3816,13 @@
         <v>3437</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,7 +3878,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3896,10 +3890,10 @@
         <v>33356</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>210</v>
+        <v>49</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>16</v>
@@ -3911,10 +3905,10 @@
         <v>29970</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>16</v>
@@ -3926,13 +3920,13 @@
         <v>63325</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,7 +3941,7 @@
         <v>1019</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>217</v>
+        <v>57</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>22</v>
@@ -4069,10 +4063,10 @@
         <v>227</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M28" s="7">
         <v>246</v>
@@ -4081,13 +4075,13 @@
         <v>265301</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,13 +4096,13 @@
         <v>7184</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -4117,13 +4111,13 @@
         <v>14600</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>238</v>
+        <v>109</v>
       </c>
       <c r="M29" s="7">
         <v>20</v>
@@ -4132,13 +4126,13 @@
         <v>21784</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,7 +4188,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A10-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A10-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88AB4D3E-44CC-49C6-AAF8-9AF19AF4C804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7251251B-C384-4C76-BB4C-1443CD82176A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A4F2C591-8F19-40F4-91DA-46E99D7EB21E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9A4C57D1-E050-4CBB-8900-2734E69E5369}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="244">
   <si>
     <t>Población que recibe medicación o terapia por trastornos cardíacos en 2012 (Tasa respuesta: 4,01%)</t>
   </si>
@@ -84,7 +84,7 @@
     <t>85,25%</t>
   </si>
   <si>
-    <t>53,37%</t>
+    <t>56,98%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -99,664 +99,676 @@
     <t>93,78%</t>
   </si>
   <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por trastornos cardíacos en 2016 (Tasa respuesta: 4,05%)</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
     <t>79,26%</t>
   </si>
   <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
   </si>
   <si>
     <t>20,74%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
   </si>
   <si>
     <t>97,04%</t>
   </si>
   <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por trastornos cardíacos en 2015 (Tasa respuesta: 4,05%)</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
+    <t>15,45%</t>
   </si>
   <si>
     <t>7,25%</t>
   </si>
   <si>
-    <t>24,12%</t>
+    <t>24,31%</t>
   </si>
   <si>
     <t>5,04%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
   </si>
   <si>
     <t>94,37%</t>
   </si>
   <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>97,61%</t>
   </si>
   <si>
     <t>90,85%</t>
   </si>
   <si>
-    <t>94,89%</t>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
   </si>
   <si>
     <t>92,41%</t>
   </si>
   <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>5,63%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
+    <t>2,39%</t>
   </si>
   <si>
     <t>9,15%</t>
   </si>
   <si>
-    <t>5,11%</t>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
   </si>
   <si>
     <t>7,59%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B559A6CA-2E12-4188-8D67-6DB5CAA86339}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A68CB49-FEBA-4BA0-9DF7-D8F8D5CB7985}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2681,7 +2693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB13889-025F-45D4-BD64-352DBECECCFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0C8A02-A487-4EB2-B39B-8460103D0CA0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2820,10 +2832,10 @@
         <v>9123</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>16</v>
@@ -2835,13 +2847,13 @@
         <v>16977</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,13 +2868,13 @@
         <v>965</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -2871,13 +2883,13 @@
         <v>2388</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -2886,13 +2898,13 @@
         <v>3353</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2987,13 @@
         <v>21309</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -2990,13 +3002,13 @@
         <v>41776</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +3038,13 @@
         <v>4073</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -3041,13 +3053,13 @@
         <v>4073</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,10 +3127,10 @@
         <v>14500</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -3130,10 +3142,10 @@
         <v>7367</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -3145,13 +3157,13 @@
         <v>21868</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3178,13 @@
         <v>2126</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3181,13 +3193,13 @@
         <v>920</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -3196,13 +3208,13 @@
         <v>3045</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3270,10 +3282,10 @@
         <v>13329</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -3285,10 +3297,10 @@
         <v>32709</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>16</v>
@@ -3300,13 +3312,13 @@
         <v>46038</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,13 +3333,13 @@
         <v>957</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3336,13 +3348,13 @@
         <v>2583</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3351,13 +3363,13 @@
         <v>3540</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,7 +3440,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>18</v>
@@ -3443,7 +3455,7 @@
         <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>18</v>
@@ -3458,7 +3470,7 @@
         <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>18</v>
@@ -3482,7 +3494,7 @@
         <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3497,7 +3509,7 @@
         <v>24</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3512,7 +3524,7 @@
         <v>24</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,10 +3592,10 @@
         <v>5518</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -3610,10 +3622,10 @@
         <v>20570</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -3631,13 +3643,13 @@
         <v>974</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3661,13 +3673,13 @@
         <v>974</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3735,10 +3747,10 @@
         <v>20943</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>16</v>
@@ -3750,10 +3762,10 @@
         <v>25227</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>16</v>
@@ -3765,13 +3777,13 @@
         <v>46171</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,13 +3798,13 @@
         <v>1143</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -3801,13 +3813,13 @@
         <v>2295</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -3816,13 +3828,13 @@
         <v>3437</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,10 +3902,10 @@
         <v>33356</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>49</v>
+        <v>214</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>16</v>
@@ -3905,10 +3917,10 @@
         <v>29970</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>16</v>
@@ -3920,13 +3932,13 @@
         <v>63325</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,13 +3953,13 @@
         <v>1019</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>57</v>
+        <v>221</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -3956,13 +3968,13 @@
         <v>2342</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -3971,13 +3983,13 @@
         <v>3361</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,13 +4057,13 @@
         <v>120373</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>225</v>
+        <v>160</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H28" s="7">
         <v>125</v>
@@ -4060,13 +4072,13 @@
         <v>144928</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M28" s="7">
         <v>246</v>
@@ -4075,13 +4087,13 @@
         <v>265301</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,13 +4108,13 @@
         <v>7184</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -4111,13 +4123,13 @@
         <v>14600</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>109</v>
+        <v>240</v>
       </c>
       <c r="M29" s="7">
         <v>20</v>
@@ -4126,13 +4138,13 @@
         <v>21784</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
